--- a/FIASO/Ospedali sentinella/FIASO_Ospedali sentinella.xlsx
+++ b/FIASO/Ospedali sentinella/FIASO_Ospedali sentinella.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/FIASO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73C9AEB-5022-0E45-8C29-085BE60E05A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8ED433-5FCD-2748-8481-7AC34831AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13780" yWindow="640" windowWidth="15020" windowHeight="15500" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
+    <workbookView xWindow="10540" yWindow="640" windowWidth="15020" windowHeight="15500" activeTab="1" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Totale ricoveri" sheetId="1" r:id="rId1"/>
     <sheet name="Di cui in terapia intensiva" sheetId="2" r:id="rId2"/>
-    <sheet name="Pazienti pediatrici" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio3" sheetId="4" r:id="rId3"/>
+    <sheet name="Pazienti pediatrici" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="17">
   <si>
     <t>Data</t>
   </si>
@@ -77,28 +78,16 @@
     <t>Terapia intensiva</t>
   </si>
   <si>
-    <t>Focus età</t>
-  </si>
-  <si>
-    <t>2 &gt; 11 anni non vaccinati</t>
-  </si>
-  <si>
-    <t>2 in terapia intensiva di 14 e 11 anni</t>
-  </si>
-  <si>
     <t>Decessi</t>
   </si>
   <si>
-    <t>40% dei minori ricoverati ha un’età superiore a 5 anni e nessuno, anche i 4 pazienti che hanno tra 12 e 18 anni, risulta vaccinato</t>
+    <t>-</t>
   </si>
   <si>
-    <t>69% ha tra 0 e 4 anni mentre la restante parte del 31% ha tra 5 e 18 anni. Nessuno dei minori sopra i 5 anni era stato vaccinato con ciclo completo. Da sottolineare, tuttavia, che la metà dei bambini finiti in ospedale, precisamente il 49%, ha un genitore non vaccinato e ben il 38% ha entrambi i genitori no vax.</t>
+    <t>Con Covid</t>
   </si>
   <si>
-    <t>0/4 37 bambini, 5/11 21 bambini, 12/18 8 bambini</t>
-  </si>
-  <si>
-    <t>0/4 77 bambini, 5/11 27 bambini, 12/18 19 bambini</t>
+    <t>Per Covid</t>
   </si>
 </sst>
 </file>
@@ -134,10 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -452,200 +443,485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44544</v>
-      </c>
-      <c r="B2" s="2">
+        <v>44512</v>
+      </c>
+      <c r="B2">
+        <v>475</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B3">
+        <v>625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B4">
+        <v>697</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>74.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B5">
+        <v>810</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>74.7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B6">
+        <v>892</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>44545</v>
       </c>
-      <c r="C2">
+      <c r="B7">
         <v>961</v>
       </c>
-      <c r="D2">
+      <c r="C7">
         <v>394</v>
       </c>
-      <c r="E2">
+      <c r="D7">
         <v>567</v>
       </c>
-      <c r="F2">
+      <c r="E7">
         <v>471</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F7" s="1">
         <v>74</v>
       </c>
-      <c r="H2">
+      <c r="G7">
         <v>372</v>
       </c>
-      <c r="I2">
+      <c r="H7">
         <v>490</v>
       </c>
-      <c r="J2">
+      <c r="I7">
         <v>65</v>
       </c>
-      <c r="K2">
+      <c r="J7">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>44552</v>
       </c>
-      <c r="C3">
+      <c r="B8">
         <v>1301</v>
       </c>
-      <c r="D3">
+      <c r="C8">
         <v>512</v>
       </c>
-      <c r="E3">
+      <c r="D8">
         <v>789</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E8" s="1">
         <v>582</v>
       </c>
-      <c r="G3">
+      <c r="F8">
         <v>73</v>
       </c>
-      <c r="H3">
+      <c r="G8">
         <v>425</v>
       </c>
-      <c r="I3">
+      <c r="H8">
         <v>719</v>
       </c>
-      <c r="J3">
+      <c r="I8">
         <v>63</v>
       </c>
-      <c r="K3">
+      <c r="J8">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44559</v>
       </c>
-      <c r="C4">
+      <c r="B9">
         <v>1478</v>
       </c>
-      <c r="D4">
+      <c r="C9">
         <v>631</v>
       </c>
-      <c r="E4">
+      <c r="D9">
         <v>847</v>
       </c>
-      <c r="F4" s="1">
+      <c r="E9" s="1">
         <v>650</v>
       </c>
-      <c r="G4">
+      <c r="F9">
         <v>70</v>
       </c>
-      <c r="H4">
+      <c r="G9">
         <v>455</v>
       </c>
-      <c r="I4">
+      <c r="H9">
         <v>828</v>
       </c>
-      <c r="J4">
+      <c r="I9">
         <v>63</v>
       </c>
-      <c r="K4">
+      <c r="J9">
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44566</v>
       </c>
-      <c r="C5">
+      <c r="B10">
         <v>1860</v>
       </c>
-      <c r="D5">
+      <c r="C10">
         <v>815</v>
       </c>
-      <c r="E5">
+      <c r="D10">
         <v>1045</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E10" s="1">
         <v>885</v>
       </c>
-      <c r="G5">
+      <c r="F10">
         <v>70.7</v>
       </c>
-      <c r="H5">
+      <c r="G10">
         <v>619</v>
       </c>
-      <c r="I5">
+      <c r="H10">
         <v>975</v>
       </c>
-      <c r="J5">
+      <c r="I10">
         <v>63.4</v>
       </c>
-      <c r="K5">
+      <c r="J10">
         <v>497</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B11">
+        <v>2183</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3">
+        <f>E10*(1+55%)</f>
+        <v>1371.75</v>
+      </c>
+      <c r="F11">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3">
+        <f>H10*(1+45%)</f>
+        <v>1413.75</v>
+      </c>
+      <c r="I11">
+        <v>65</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B12">
+        <v>2339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>767</v>
+      </c>
+      <c r="L12">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B12*(1+0.4%)</f>
+        <v>2348.3560000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="1">
+        <f>K12*(1+6.7%)</f>
+        <v>818.38900000000001</v>
+      </c>
+      <c r="L13" s="3">
+        <f>L12*(1-2.5%)</f>
+        <v>1532.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B13*(1-3.3%)</f>
+        <v>2270.8602519999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>840</v>
+      </c>
+      <c r="L14">
+        <v>1431</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -654,15 +930,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0D06A4-5ED6-214A-A8A7-22E38B602467}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,133 +969,436 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44545</v>
+        <v>44512</v>
       </c>
       <c r="B2">
-        <v>114</v>
-      </c>
-      <c r="C2">
-        <v>41</v>
-      </c>
-      <c r="D2">
-        <v>73</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44517</v>
+      </c>
+      <c r="B3">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>22</v>
+      </c>
+      <c r="F3">
         <v>70</v>
       </c>
-      <c r="G2">
-        <v>24</v>
-      </c>
-      <c r="H2">
-        <v>84</v>
-      </c>
-      <c r="I2">
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
         <v>64</v>
-      </c>
-      <c r="J2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>44552</v>
-      </c>
-      <c r="B3">
-        <v>161</v>
-      </c>
-      <c r="C3">
-        <v>56</v>
-      </c>
-      <c r="D3">
-        <v>105</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>69</v>
-      </c>
-      <c r="G3">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>111</v>
       </c>
       <c r="I3">
         <v>61</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44524</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3">
+        <v>58.08</v>
+      </c>
+      <c r="I4">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44531</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <f>E4*(1-10%)</f>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="3">
+        <f>H4*(1+17%)</f>
+        <v>67.953599999999994</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44538</v>
+      </c>
+      <c r="B6">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B8">
+        <v>161</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>105</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>111</v>
+      </c>
+      <c r="I8">
+        <v>61</v>
+      </c>
+      <c r="J8">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>44559</v>
       </c>
-      <c r="B4">
+      <c r="B9">
         <v>190</v>
       </c>
-      <c r="C4">
+      <c r="C9">
         <v>62</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>128</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>55</v>
       </c>
-      <c r="F4">
+      <c r="F9">
         <v>65</v>
       </c>
-      <c r="G4">
+      <c r="G9">
         <v>33</v>
       </c>
-      <c r="H4">
+      <c r="H9">
         <v>135</v>
       </c>
-      <c r="I4">
+      <c r="I9">
         <v>61</v>
       </c>
-      <c r="J4">
+      <c r="J9">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>44566</v>
       </c>
-      <c r="B5">
+      <c r="B10">
         <v>215</v>
       </c>
-      <c r="C5">
+      <c r="C10">
         <v>68</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>147</v>
       </c>
-      <c r="E5">
+      <c r="E10">
         <v>61</v>
       </c>
-      <c r="F5">
+      <c r="F10">
         <v>68.3</v>
       </c>
-      <c r="G5">
+      <c r="G10">
         <v>41</v>
       </c>
-      <c r="H5">
+      <c r="H10">
         <v>154</v>
       </c>
-      <c r="I5">
+      <c r="I10">
         <v>57.2</v>
       </c>
-      <c r="J5">
+      <c r="J10">
         <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B11">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G11">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>148</v>
+      </c>
+      <c r="I11">
+        <v>61.7</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B12">
+        <v>240</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>99</v>
+      </c>
+      <c r="F12">
+        <v>67.8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>149</v>
+      </c>
+      <c r="I12">
+        <v>60.6</v>
+      </c>
+      <c r="K12">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B13" s="3">
+        <v>220</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>65.7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <v>63.1</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B13*(1-1.5%)</f>
+        <v>216.7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>35</v>
+      </c>
+      <c r="L14">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -828,16 +1407,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DD56E7-9076-0A46-86C3-F97A3C89644D}">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD0F41B-B95B-3D49-A637-9236A4D607E6}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2+B2</f>
+        <v>86</v>
+      </c>
+      <c r="D2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3" s="3">
+        <v>58.08</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C12" si="0">A3+B3</f>
+        <v>88.08</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f>A3*(1-10%)</f>
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B3*(1+17%)</f>
+        <v>67.953599999999994</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>94.953599999999994</v>
+      </c>
+      <c r="D4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>111</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>55</v>
+      </c>
+      <c r="B8">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="D8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>61</v>
+      </c>
+      <c r="B9">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="D9">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>148</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <v>240</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+      <c r="D11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f>99*(1+44%)</f>
+        <v>142.56</v>
+      </c>
+      <c r="B12" s="3">
+        <f>240*(1+56%)</f>
+        <v>374.40000000000003</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>516.96</v>
+      </c>
+      <c r="D12" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DD56E7-9076-0A46-86C3-F97A3C89644D}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,11 +1632,8 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44524</v>
       </c>
@@ -867,11 +1643,8 @@
       <c r="D2">
         <v>3.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44531</v>
       </c>
@@ -884,11 +1657,8 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44538</v>
       </c>
@@ -902,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44545</v>
       </c>
@@ -912,25 +1682,19 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44552</v>
       </c>
       <c r="B6">
         <v>45</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44559</v>
       </c>
@@ -943,11 +1707,8 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
@@ -960,8 +1721,59 @@
       <c r="D8">
         <v>4.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44573</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44580</v>
+      </c>
+      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B11">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B12">
+        <f>B11*(1-0.8%)</f>
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>

--- a/FIASO/Ospedali sentinella/FIASO_Ospedali sentinella.xlsx
+++ b/FIASO/Ospedali sentinella/FIASO_Ospedali sentinella.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francescobranda/Desktop/Università/Scientific_Papers/Personal/Work_in_progress/COVID-19/FIASO/Ospedali sentinella/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD2FB47-02C4-3442-9F65-4B27E675897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F231DA-A005-6045-9C01-7499D053B1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10540" yWindow="640" windowWidth="15020" windowHeight="15500" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
+    <workbookView xWindow="10540" yWindow="640" windowWidth="18060" windowHeight="15500" activeTab="1" xr2:uid="{22C4DE2E-C98A-5A4E-BEE0-1E8E21B520F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Totale ricoveri" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Data</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Decessi</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Con Covid</t>
   </si>
   <si>
@@ -92,17 +89,57 @@
     <t>#Ospedali</t>
   </si>
   <si>
-    <t>Ospedalizzazioni</t>
+    <t>Ricoveri totali</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>+17%</t>
+  </si>
+  <si>
+    <t>-10%</t>
+  </si>
+  <si>
+    <t>77 (+32%)</t>
+  </si>
+  <si>
+    <t>20 (-33%)</t>
+  </si>
+  <si>
+    <t>Età_0_4</t>
+  </si>
+  <si>
+    <t>Età_5_11</t>
+  </si>
+  <si>
+    <t>Età_12_18</t>
+  </si>
+  <si>
+    <t>Ciclo vaccinale completo (%)</t>
+  </si>
+  <si>
+    <t>Non vaccinati (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,12 +165,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -448,23 +489,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121A6DDE-E74E-2542-80AB-86B57FB1660E}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -476,28 +517,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44512</v>
       </c>
@@ -507,32 +551,8 @@
       <c r="C2">
         <v>475</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44517</v>
       </c>
@@ -542,32 +562,8 @@
       <c r="C3">
         <v>625</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44524</v>
       </c>
@@ -577,90 +573,42 @@
       <c r="C4">
         <v>697</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
+      <c r="H4">
         <v>74.2</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44531</v>
       </c>
       <c r="C5">
         <v>810</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5">
+      <c r="H5">
         <v>74.7</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
+      <c r="J5">
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44538</v>
       </c>
       <c r="C6">
         <v>892</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
+      <c r="H6">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
+      <c r="J6">
         <v>64</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44545</v>
       </c>
@@ -676,23 +624,29 @@
       <c r="F7">
         <v>471</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="H7" s="1">
         <v>74</v>
       </c>
-      <c r="H7">
-        <v>372</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="J7">
         <v>490</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>65</v>
       </c>
-      <c r="K7">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44552</v>
       </c>
@@ -711,23 +665,17 @@
       <c r="F8" s="1">
         <v>582</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>73</v>
       </c>
-      <c r="H8">
-        <v>425</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
         <v>719</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>63</v>
       </c>
-      <c r="K8">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44559</v>
       </c>
@@ -746,23 +694,29 @@
       <c r="F9" s="1">
         <v>650</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="H9">
         <v>70</v>
       </c>
-      <c r="H9">
-        <v>455</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J9">
         <v>828</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>63</v>
       </c>
-      <c r="K9">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
@@ -781,23 +735,29 @@
       <c r="F10" s="1">
         <v>885</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H10">
         <v>70.7</v>
       </c>
-      <c r="H10">
-        <v>619</v>
-      </c>
-      <c r="I10">
+      <c r="I10" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="J10">
         <v>975</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>63.4</v>
       </c>
-      <c r="K10">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44573</v>
       </c>
@@ -806,35 +766,23 @@
       </c>
       <c r="C11">
         <v>2183</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
       </c>
       <c r="F11" s="3">
         <f>F10*(1+55%)</f>
         <v>1371.75</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>71</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="3">
-        <f>I10*(1+45%)</f>
+      <c r="J11" s="3">
+        <f>J10*(1+45%)</f>
         <v>1413.75</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>65</v>
       </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44580</v>
       </c>
@@ -844,38 +792,21 @@
       <c r="C12">
         <v>2339</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="1"/>
+      <c r="H12">
         <v>72</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12">
+      <c r="K12">
         <v>66</v>
       </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12">
-        <v>641</v>
-      </c>
-      <c r="M12">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="7">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44587</v>
       </c>
@@ -883,42 +814,18 @@
         <v>19</v>
       </c>
       <c r="C13" s="3">
-        <v>2175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="1">
-        <f>L12*(1+6.7%)</f>
-        <v>683.947</v>
-      </c>
-      <c r="M13" s="3">
-        <f>M12*(1-2.5%)</f>
-        <v>1275.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <f>C14*(1+3.5%)</f>
+        <v>1974.7799999999997</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="N13" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44594</v>
       </c>
@@ -926,34 +833,17 @@
         <v>19</v>
       </c>
       <c r="C14" s="3">
-        <v>2103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1908</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="N14" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44601</v>
       </c>
@@ -961,13 +851,30 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>2025</v>
-      </c>
-      <c r="L15">
+        <v>1845</v>
+      </c>
+      <c r="N15">
+        <v>1120</v>
+      </c>
+      <c r="O15">
         <v>725</v>
       </c>
-      <c r="M15">
-        <v>1120</v>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1542</v>
+      </c>
+      <c r="N16">
+        <v>932</v>
+      </c>
+      <c r="O16">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -977,15 +884,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0D06A4-5ED6-214A-A8A7-22E38B602467}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1002,190 +909,119 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44512</v>
       </c>
       <c r="B2">
         <v>59</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44517</v>
       </c>
       <c r="B3">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G3">
         <v>70</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>64</v>
-      </c>
-      <c r="I3">
+      <c r="I3" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="K3">
         <v>61</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44524</v>
       </c>
       <c r="B4">
         <v>88</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="G4">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3">
-        <v>58.08</v>
-      </c>
-      <c r="I4">
+      <c r="I4" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K4">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44531</v>
       </c>
       <c r="B5">
         <v>95</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <f>E4*(1-10%)</f>
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3">
-        <f>H4*(1+17%)</f>
-        <v>67.953599999999994</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44538</v>
       </c>
       <c r="B6">
         <v>97</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
         <v>69</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>77</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
         <v>62</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44545</v>
       </c>
@@ -1201,23 +1037,29 @@
       <c r="E7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G7">
         <v>70</v>
       </c>
-      <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
         <v>84</v>
       </c>
-      <c r="I7">
+      <c r="J7" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="K7">
         <v>64</v>
       </c>
-      <c r="J7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44552</v>
       </c>
@@ -1233,23 +1075,17 @@
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>69</v>
       </c>
-      <c r="G8">
-        <v>33</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
         <v>111</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>61</v>
       </c>
-      <c r="J8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44559</v>
       </c>
@@ -1265,23 +1101,29 @@
       <c r="E9">
         <v>55</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G9">
         <v>65</v>
       </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
         <v>135</v>
       </c>
-      <c r="I9">
+      <c r="J9" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="K9">
         <v>61</v>
       </c>
-      <c r="J9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
@@ -1297,23 +1139,29 @@
       <c r="E10">
         <v>61</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10">
         <v>68.3</v>
       </c>
-      <c r="G10">
-        <v>41</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="I10">
         <v>154</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K10">
         <v>57.2</v>
       </c>
-      <c r="J10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44573</v>
       </c>
@@ -1329,143 +1177,146 @@
       <c r="E11">
         <v>72</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="G11">
         <v>67.599999999999994</v>
       </c>
-      <c r="G11">
-        <v>46</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I11">
         <v>148</v>
       </c>
-      <c r="I11">
+      <c r="J11" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="K11">
         <v>61.7</v>
       </c>
-      <c r="J11">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44580</v>
       </c>
       <c r="B12">
         <v>240</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>99</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="G12">
         <v>67.8</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12">
-        <v>149</v>
-      </c>
-      <c r="I12">
+      <c r="I12" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K12">
         <v>60.6</v>
       </c>
-      <c r="K12">
-        <v>24</v>
-      </c>
-      <c r="L12">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44587</v>
       </c>
       <c r="B13" s="3">
         <v>220</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="G13">
         <v>65.7</v>
       </c>
-      <c r="G13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13">
+      <c r="I13" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K13">
         <v>63.1</v>
       </c>
-      <c r="K13">
-        <v>18</v>
-      </c>
-      <c r="L13">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44594</v>
       </c>
       <c r="B14" s="3">
         <v>195</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>35</v>
-      </c>
-      <c r="L14">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E14" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44601</v>
       </c>
       <c r="B15" s="3">
-        <f>B14*(1-7.7%)</f>
-        <v>179.98500000000001</v>
-      </c>
-      <c r="E15">
-        <v>77</v>
-      </c>
-      <c r="F15">
+        <f>B14*(17.7%)</f>
+        <v>34.515000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="G15">
         <v>66</v>
       </c>
-      <c r="H15">
-        <v>103</v>
-      </c>
-      <c r="I15">
+      <c r="I15" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K15">
         <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B15*(126.1%)</f>
+        <v>43.523415</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K16">
+        <v>61</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -1475,20 +1326,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DD56E7-9076-0A46-86C3-F97A3C89644D}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -1502,8 +1353,17 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44524</v>
       </c>
@@ -1517,7 +1377,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44531</v>
       </c>
@@ -1531,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44538</v>
       </c>
@@ -1545,7 +1405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44545</v>
       </c>
@@ -1559,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44552</v>
       </c>
@@ -1570,7 +1430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44559</v>
       </c>
@@ -1586,8 +1446,17 @@
       <c r="E7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <v>21</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44566</v>
       </c>
@@ -1603,8 +1472,17 @@
       <c r="E8">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>77</v>
+      </c>
+      <c r="H8">
+        <v>27</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44573</v>
       </c>
@@ -1618,7 +1496,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44580</v>
       </c>
@@ -1634,8 +1512,17 @@
       <c r="E10">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44587</v>
       </c>
@@ -1651,8 +1538,17 @@
       <c r="E11">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="7">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44594</v>
       </c>
@@ -1669,8 +1565,17 @@
       <c r="E12">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.315</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44601</v>
       </c>
@@ -1678,11 +1583,44 @@
         <v>4</v>
       </c>
       <c r="C13" s="3">
-        <f>C12*(1-11.3%)</f>
-        <v>109.988</v>
+        <f>C12*(111.3%)</f>
+        <v>138.012</v>
       </c>
       <c r="E13">
         <v>4.9000000000000004</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <f>C13*(10.9%)</f>
+        <v>15.043308</v>
+      </c>
+      <c r="E14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
